--- a/results_primer.xlsx
+++ b/results_primer.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="23140" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="5220" yWindow="23580" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="results_primer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -582,7 +582,7 @@
   <dimension ref="A1:H277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4359,15 +4359,15 @@
       </c>
       <c r="F140">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G140">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H140" s="1">
         <f ca="1">F140/(G140+F140)</f>
-        <v>0.63414634146341464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -4390,15 +4390,15 @@
       </c>
       <c r="F141">
         <f t="shared" ref="F141:G172" ca="1" si="4">RANDBETWEEN(0,100)</f>
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G141">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="H141" s="1">
         <f t="shared" ref="H141:H204" ca="1" si="5">F141/(G141+F141)</f>
-        <v>0.20454545454545456</v>
+        <v>0.83673469387755106</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -4421,15 +4421,15 @@
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="G142">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H142" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93617021276595747</v>
+        <v>0.96551724137931039</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -4452,15 +4452,15 @@
       </c>
       <c r="F143">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="G143">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H143" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28947368421052633</v>
+        <v>0.51136363636363635</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -4483,15 +4483,15 @@
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G144">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H144" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33898305084745761</v>
+        <v>0.32539682539682541</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -4514,15 +4514,15 @@
       </c>
       <c r="F145">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G145">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="H145" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49275362318840582</v>
+        <v>0.45348837209302323</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="F146">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="G146">
         <f t="shared" ca="1" si="4"/>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="H146" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20175438596491227</v>
+        <v>0.50543478260869568</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -4576,15 +4576,15 @@
       </c>
       <c r="F147">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="G147">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H147" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63855421686746983</v>
+        <v>0.65354330708661412</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -4607,15 +4607,15 @@
       </c>
       <c r="F148">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G148">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H148" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10909090909090909</v>
+        <v>0.42105263157894735</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -4638,15 +4638,15 @@
       </c>
       <c r="F149">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="G149">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="H149" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62727272727272732</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -4669,15 +4669,15 @@
       </c>
       <c r="F150">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G150">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H150" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82278481012658233</v>
+        <v>0.50549450549450547</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -4700,15 +4700,15 @@
       </c>
       <c r="F151">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="G151">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="H151" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48618784530386738</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -4731,15 +4731,15 @@
       </c>
       <c r="F152">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G152">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="H152" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -4762,15 +4762,15 @@
       </c>
       <c r="F153">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G153">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="H153" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29411764705882354</v>
+        <v>0.43617021276595747</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -4793,15 +4793,15 @@
       </c>
       <c r="F154">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="G154">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="H154" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.94285714285714284</v>
+        <v>0.44516129032258067</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -4824,15 +4824,15 @@
       </c>
       <c r="F155">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="G155">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="H155" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55882352941176472</v>
+        <v>0.54285714285714282</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="F156">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="G156">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="H156" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48739495798319327</v>
+        <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -4886,15 +4886,15 @@
       </c>
       <c r="F157">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G157">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H157" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.56190476190476191</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -4917,15 +4917,15 @@
       </c>
       <c r="F158">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="G158">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H158" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84259259259259256</v>
+        <v>0.48717948717948717</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -4948,15 +4948,15 @@
       </c>
       <c r="F159">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G159">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H159" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47413793103448276</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -4979,15 +4979,15 @@
       </c>
       <c r="F160">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G160">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="H160" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33870967741935482</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -5010,15 +5010,15 @@
       </c>
       <c r="F161">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G161">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="H161" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41489361702127658</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -5041,15 +5041,15 @@
       </c>
       <c r="F162">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G162">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H162" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58108108108108103</v>
+        <v>0.64900662251655628</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -5075,11 +5075,11 @@
       </c>
       <c r="G163">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H163" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35714285714285715</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -5102,15 +5102,15 @@
       </c>
       <c r="F164">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="G164">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="H164" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34265734265734266</v>
+        <v>0.89523809523809528</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -5133,15 +5133,15 @@
       </c>
       <c r="F165">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="G165">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H165" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13157894736842105</v>
+        <v>0.55952380952380953</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -5164,15 +5164,15 @@
       </c>
       <c r="F166">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="G166">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H166" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19672131147540983</v>
+        <v>0.39622641509433965</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -5195,15 +5195,15 @@
       </c>
       <c r="F167">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G167">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="H167" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80952380952380953</v>
+        <v>0.24576271186440679</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -5226,15 +5226,15 @@
       </c>
       <c r="F168">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G168">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H168" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24358974358974358</v>
+        <v>0.59183673469387754</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -5257,15 +5257,15 @@
       </c>
       <c r="F169">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G169">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="H169" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45180722891566266</v>
+        <v>0.9555555555555556</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -5288,15 +5288,15 @@
       </c>
       <c r="F170">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="G170">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="H170" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82568807339449546</v>
+        <v>0.4609375</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -5319,15 +5319,15 @@
       </c>
       <c r="F171">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G171">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="H171" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15555555555555556</v>
+        <v>0.75531914893617025</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -5350,15 +5350,15 @@
       </c>
       <c r="F172">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G172">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="H172" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72289156626506024</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -5381,15 +5381,15 @@
       </c>
       <c r="F173">
         <f t="shared" ref="F173:G204" ca="1" si="7">RANDBETWEEN(0,100)</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G173">
         <f t="shared" ca="1" si="7"/>
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="H173" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -5412,15 +5412,15 @@
       </c>
       <c r="F174">
         <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G174">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H174" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17204301075268819</v>
+        <v>0.50549450549450547</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -5443,15 +5443,15 @@
       </c>
       <c r="F175">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="G175">
         <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H175" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23214285714285715</v>
+        <v>0.63157894736842102</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -5474,15 +5474,15 @@
       </c>
       <c r="F176">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G176">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H176" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
+        <v>0.41739130434782606</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -5505,15 +5505,15 @@
       </c>
       <c r="F177">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="G177">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H177" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.98571428571428577</v>
+        <v>0.65671641791044777</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -5536,15 +5536,15 @@
       </c>
       <c r="F178">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G178">
         <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="H178" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60606060606060608</v>
+        <v>0.11956521739130435</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -5567,15 +5567,15 @@
       </c>
       <c r="F179">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G179">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="H179" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79838709677419351</v>
+        <v>0.54022988505747127</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -5598,15 +5598,15 @@
       </c>
       <c r="F180">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="G180">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="H180" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97297297297297303</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -5629,15 +5629,15 @@
       </c>
       <c r="F181">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G181">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="H181" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68309859154929575</v>
+        <v>0.51315789473684215</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -5660,15 +5660,15 @@
       </c>
       <c r="F182">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G182">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H182" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30158730158730157</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -5691,15 +5691,15 @@
       </c>
       <c r="F183">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G183">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="H183" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80198019801980203</v>
+        <v>0.5214723926380368</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -5722,15 +5722,15 @@
       </c>
       <c r="F184">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G184">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="H184" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61194029850746268</v>
+        <v>0.43312101910828027</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
@@ -5753,15 +5753,15 @@
       </c>
       <c r="F185">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="G185">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="H185" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95833333333333337</v>
+        <v>0.50531914893617025</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -5783,15 +5783,15 @@
       </c>
       <c r="F186">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="G186">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H186" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4285714285714285E-2</v>
+        <v>0.36301369863013699</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -5814,15 +5814,15 @@
       </c>
       <c r="F187">
         <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="G187">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="H187" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -5845,15 +5845,15 @@
       </c>
       <c r="F188">
         <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G188">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H188" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41538461538461541</v>
+        <v>1.4705882352941176E-2</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -5876,15 +5876,15 @@
       </c>
       <c r="F189">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G189">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="H189" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62745098039215685</v>
+        <v>0.33093525179856115</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -5907,15 +5907,15 @@
       </c>
       <c r="F190">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G190">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H190" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16037735849056603</v>
+        <v>0.27692307692307694</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -5938,15 +5938,15 @@
       </c>
       <c r="F191">
         <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G191">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="H191" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21951219512195122</v>
+        <v>0.81147540983606559</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -5969,15 +5969,15 @@
       </c>
       <c r="F192">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G192">
         <f t="shared" ca="1" si="7"/>
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="H192" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62393162393162394</v>
+        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -6000,15 +6000,15 @@
       </c>
       <c r="F193">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G193">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H193" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41176470588235292</v>
+        <v>0.30864197530864196</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -6031,15 +6031,15 @@
       </c>
       <c r="F194">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G194">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H194" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48192771084337349</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -6062,15 +6062,15 @@
       </c>
       <c r="F195">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G195">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H195" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60897435897435892</v>
+        <v>0.68493150684931503</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -6093,15 +6093,15 @@
       </c>
       <c r="F196">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="G196">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="H196" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64666666666666661</v>
+        <v>0.28985507246376813</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -6124,15 +6124,15 @@
       </c>
       <c r="F197">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G197">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H197" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.78125</v>
+        <v>0.54347826086956519</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -6155,15 +6155,15 @@
       </c>
       <c r="F198">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="G198">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H198" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86274509803921573</v>
+        <v>0.23529411764705882</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -6186,15 +6186,15 @@
       </c>
       <c r="F199">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G199">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="H199" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55813953488372092</v>
+        <v>0.70175438596491224</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -6217,15 +6217,15 @@
       </c>
       <c r="F200">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="G200">
         <f t="shared" ca="1" si="7"/>
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H200" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44444444444444442</v>
+        <v>0.81443298969072164</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -6248,15 +6248,15 @@
       </c>
       <c r="F201">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="G201">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H201" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50819672131147542</v>
+        <v>0.99009900990099009</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -6279,15 +6279,15 @@
       </c>
       <c r="F202">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="G202">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="H202" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -6310,15 +6310,15 @@
       </c>
       <c r="F203">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="G203">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H203" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5217391304347824E-2</v>
+        <v>0.44186046511627908</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -6341,15 +6341,15 @@
       </c>
       <c r="F204">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G204">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H204" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47058823529411764</v>
+        <v>0.3902439024390244</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -6372,15 +6372,15 @@
       </c>
       <c r="F205">
         <f t="shared" ref="F205:G236" ca="1" si="9">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G205">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H205" s="1">
         <f t="shared" ref="H205:H268" ca="1" si="10">F205/(G205+F205)</f>
-        <v>0.63970588235294112</v>
+        <v>0.84810126582278478</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -6403,15 +6403,15 @@
       </c>
       <c r="F206">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="G206">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H206" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.76923076923076927</v>
+        <v>0.73809523809523814</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -6434,15 +6434,15 @@
       </c>
       <c r="F207">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G207">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H207" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.79591836734693877</v>
+        <v>0.68376068376068377</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -6465,15 +6465,15 @@
       </c>
       <c r="F208">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="G208">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H208" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.35064935064935066</v>
+        <v>0.62416107382550334</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -6495,15 +6495,15 @@
       </c>
       <c r="F209">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G209">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H209" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.49532710280373832</v>
+        <v>0.53488372093023251</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -6526,15 +6526,15 @@
       </c>
       <c r="F210">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G210">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="H210" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.17333333333333334</v>
+        <v>5.7471264367816091E-2</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -6557,15 +6557,15 @@
       </c>
       <c r="F211">
         <f t="shared" ca="1" si="9"/>
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="G211">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H211" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.3235294117647059</v>
+        <v>0.48427672955974843</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -6588,15 +6588,15 @@
       </c>
       <c r="F212">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="G212">
         <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="H212" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.27777777777777779</v>
+        <v>0.77894736842105261</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -6619,15 +6619,15 @@
       </c>
       <c r="F213">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G213">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="H213" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.40119760479041916</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -6650,15 +6650,15 @@
       </c>
       <c r="F214">
         <f t="shared" ca="1" si="9"/>
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="G214">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="H214" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58139534883720934</v>
+        <v>0.51190476190476186</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -6681,15 +6681,15 @@
       </c>
       <c r="F215">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="G215">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H215" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.61392405063291144</v>
+        <v>0.12643678160919541</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -6712,15 +6712,15 @@
       </c>
       <c r="F216">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="G216">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="H216" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.37226277372262773</v>
+        <v>8.5714285714285715E-2</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -6743,15 +6743,15 @@
       </c>
       <c r="F217">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="G217">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H217" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.53333333333333333</v>
+        <v>0.61682242990654201</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -6774,15 +6774,15 @@
       </c>
       <c r="F218">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G218">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="H218" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.93103448275862066</v>
+        <v>0.27631578947368424</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -6805,15 +6805,15 @@
       </c>
       <c r="F219">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G219">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="H219" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.72131147540983609</v>
+        <v>9.9009900990099011E-3</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -6836,15 +6836,15 @@
       </c>
       <c r="F220">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="G220">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="H220" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.66442953020134232</v>
+        <v>0.44970414201183434</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -6867,15 +6867,15 @@
       </c>
       <c r="F221">
         <f t="shared" ca="1" si="9"/>
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G221">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H221" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.64539007092198586</v>
+        <v>0.81720430107526887</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -6898,15 +6898,15 @@
       </c>
       <c r="F222">
         <f t="shared" ca="1" si="9"/>
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="G222">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="H222" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20183486238532111</v>
+        <v>0.62091503267973858</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -6929,15 +6929,15 @@
       </c>
       <c r="F223">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G223">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="H223" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.54320987654320985</v>
+        <v>0.79816513761467889</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -6960,15 +6960,15 @@
       </c>
       <c r="F224">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="G224">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="H224" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.19318181818181818</v>
+        <v>0.79207920792079212</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -6991,15 +6991,15 @@
       </c>
       <c r="F225">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G225">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H225" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.17647058823529413</v>
+        <v>0.45161290322580644</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -7022,15 +7022,15 @@
       </c>
       <c r="F226">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G226">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="H226" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59210526315789469</v>
+        <v>0.50810810810810814</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -7053,15 +7053,15 @@
       </c>
       <c r="F227">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G227">
         <f t="shared" ca="1" si="9"/>
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="H227" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58260869565217388</v>
+        <v>0.49404761904761907</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -7084,15 +7084,15 @@
       </c>
       <c r="F228">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="G228">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H228" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.70588235294117652</v>
+        <v>0.39310344827586208</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -7115,15 +7115,15 @@
       </c>
       <c r="F229">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G229">
         <f t="shared" ca="1" si="9"/>
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H229" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.41975308641975306</v>
+        <v>0.37391304347826088</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -7146,15 +7146,15 @@
       </c>
       <c r="F230">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="G230">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H230" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.66935483870967738</v>
+        <v>0.25714285714285712</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -7177,15 +7177,15 @@
       </c>
       <c r="F231">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G231">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="H231" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42941176470588233</v>
+        <v>0.40845070422535212</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="F232">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G232">
         <f t="shared" ca="1" si="9"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H232" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.24691358024691357</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -7238,15 +7238,15 @@
       </c>
       <c r="F233">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="G233">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H233" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.65517241379310343</v>
+        <v>0.36904761904761907</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -7269,15 +7269,15 @@
       </c>
       <c r="F234">
         <f t="shared" ca="1" si="9"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G234">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="H234" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.23469387755102042</v>
+        <v>0.3188405797101449</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -7300,15 +7300,15 @@
       </c>
       <c r="F235">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="G235">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="H235" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.63461538461538458</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -7331,15 +7331,15 @@
       </c>
       <c r="F236">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G236">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="H236" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.87912087912087911</v>
+        <v>0.48275862068965519</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
@@ -7362,15 +7362,15 @@
       </c>
       <c r="F237">
         <f t="shared" ref="F237:G277" ca="1" si="13">RANDBETWEEN(0,100)</f>
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="G237">
         <f t="shared" ca="1" si="13"/>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H237" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.32142857142857145</v>
+        <v>0.45061728395061729</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -7393,15 +7393,15 @@
       </c>
       <c r="F238">
         <f t="shared" ca="1" si="13"/>
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="G238">
         <f t="shared" ca="1" si="13"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H238" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51162790697674421</v>
+        <v>0.87628865979381443</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -7424,15 +7424,15 @@
       </c>
       <c r="F239">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="G239">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="H239" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.21348314606741572</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -7455,15 +7455,15 @@
       </c>
       <c r="F240">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="G240">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H240" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83561643835616439</v>
+        <v>0.95604395604395609</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -7486,15 +7486,15 @@
       </c>
       <c r="F241">
         <f t="shared" ca="1" si="13"/>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G241">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="H241" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84466019417475724</v>
+        <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -7517,15 +7517,15 @@
       </c>
       <c r="F242">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G242">
         <f t="shared" ca="1" si="13"/>
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H242" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.34959349593495936</v>
+        <v>0.12658227848101267</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -7548,15 +7548,15 @@
       </c>
       <c r="F243">
         <f t="shared" ca="1" si="13"/>
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="G243">
         <f t="shared" ca="1" si="13"/>
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="H243" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.27131782945736432</v>
+        <v>6.7796610169491525E-2</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -7579,15 +7579,15 @@
       </c>
       <c r="F244">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G244">
         <f t="shared" ca="1" si="13"/>
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="H244" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5.7142857142857141E-2</v>
+        <v>0.17105263157894737</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -7610,15 +7610,15 @@
       </c>
       <c r="F245">
         <f t="shared" ca="1" si="13"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G245">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="H245" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6095890410958904</v>
+        <v>0.38750000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -7641,15 +7641,15 @@
       </c>
       <c r="F246">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G246">
         <f t="shared" ca="1" si="13"/>
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H246" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.21249999999999999</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -7672,15 +7672,15 @@
       </c>
       <c r="F247">
         <f t="shared" ca="1" si="13"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G247">
         <f t="shared" ca="1" si="13"/>
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H247" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.55555555555555558</v>
+        <v>0.68965517241379315</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -7703,15 +7703,15 @@
       </c>
       <c r="F248">
         <f t="shared" ca="1" si="13"/>
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="G248">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="H248" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33333333333333331</v>
+        <v>0.88524590163934425</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -7734,15 +7734,15 @@
       </c>
       <c r="F249">
         <f t="shared" ca="1" si="13"/>
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="G249">
         <f t="shared" ca="1" si="13"/>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H249" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.80373831775700932</v>
+        <v>0.29310344827586204</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -7765,15 +7765,15 @@
       </c>
       <c r="F250">
         <f t="shared" ca="1" si="13"/>
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G250">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H250" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.8</v>
+        <v>0.23809523809523808</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -7796,15 +7796,15 @@
       </c>
       <c r="F251">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="G251">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H251" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.5</v>
+        <v>0.69902912621359226</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -7827,15 +7827,15 @@
       </c>
       <c r="F252">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G252">
         <f t="shared" ca="1" si="13"/>
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="H252" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.3401360544217687</v>
+        <v>0.48051948051948051</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -7858,15 +7858,15 @@
       </c>
       <c r="F253">
         <f t="shared" ca="1" si="13"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G253">
         <f t="shared" ca="1" si="13"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H253" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43262411347517732</v>
+        <v>0.45323741007194246</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -7889,15 +7889,15 @@
       </c>
       <c r="F254">
         <f t="shared" ca="1" si="13"/>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G254">
         <f t="shared" ca="1" si="13"/>
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="H254" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.22764227642276422</v>
+        <v>0.21839080459770116</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -7919,15 +7919,15 @@
       </c>
       <c r="F255">
         <f t="shared" ca="1" si="13"/>
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="G255">
         <f t="shared" ca="1" si="13"/>
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="H255" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4</v>
+        <v>0.57594936708860756</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -7950,15 +7950,15 @@
       </c>
       <c r="F256">
         <f t="shared" ca="1" si="13"/>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G256">
         <f t="shared" ca="1" si="13"/>
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H256" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.56050955414012738</v>
+        <v>0.61940298507462688</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -7981,15 +7981,15 @@
       </c>
       <c r="F257">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G257">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H257" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.63265306122448983</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -8012,15 +8012,15 @@
       </c>
       <c r="F258">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G258">
         <f t="shared" ca="1" si="13"/>
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="H258" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.35507246376811596</v>
+        <v>0.32989690721649484</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -8043,15 +8043,15 @@
       </c>
       <c r="F259">
         <f t="shared" ca="1" si="13"/>
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G259">
         <f t="shared" ca="1" si="13"/>
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="H259" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.44067796610169491</v>
+        <v>0.50793650793650791</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -8074,15 +8074,15 @@
       </c>
       <c r="F260">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G260">
         <f t="shared" ca="1" si="13"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H260" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.10714285714285714</v>
+        <v>0.11235955056179775</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -8105,15 +8105,15 @@
       </c>
       <c r="F261">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G261">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="H261" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.12820512820512819</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -8136,15 +8136,15 @@
       </c>
       <c r="F262">
         <f t="shared" ca="1" si="13"/>
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G262">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="H262" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58585858585858586</v>
+        <v>0.51533742331288346</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="F263">
         <f t="shared" ca="1" si="13"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G263">
         <f t="shared" ca="1" si="13"/>
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H263" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.5</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -8198,15 +8198,15 @@
       </c>
       <c r="F264">
         <f t="shared" ca="1" si="13"/>
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G264">
         <f t="shared" ca="1" si="13"/>
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="H264" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51098901098901095</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -8229,15 +8229,15 @@
       </c>
       <c r="F265">
         <f t="shared" ca="1" si="13"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G265">
         <f t="shared" ca="1" si="13"/>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="H265" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.52564102564102566</v>
+        <v>0.58730158730158732</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -8260,15 +8260,15 @@
       </c>
       <c r="F266">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G266">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H266" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.90666666666666662</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -8291,15 +8291,15 @@
       </c>
       <c r="F267">
         <f t="shared" ca="1" si="13"/>
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="G267">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H267" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.81147540983606559</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -8322,15 +8322,15 @@
       </c>
       <c r="F268">
         <f t="shared" ca="1" si="13"/>
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G268">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="H268" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>0.8</v>
+        <v>0.23275862068965517</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -8353,15 +8353,15 @@
       </c>
       <c r="F269">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="G269">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="H269" s="1">
         <f t="shared" ref="H269:H277" ca="1" si="15">F269/(G269+F269)</f>
-        <v>0.88311688311688308</v>
+        <v>0.52356020942408377</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -8384,15 +8384,15 @@
       </c>
       <c r="F270">
         <f t="shared" ca="1" si="13"/>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="G270">
         <f t="shared" ca="1" si="13"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H270" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.26126126126126126</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -8415,15 +8415,15 @@
       </c>
       <c r="F271">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G271">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H271" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.45714285714285713</v>
+        <v>0.61904761904761907</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -8446,15 +8446,15 @@
       </c>
       <c r="F272">
         <f t="shared" ca="1" si="13"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G272">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H272" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.83908045977011492</v>
+        <v>0.87777777777777777</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -8477,15 +8477,15 @@
       </c>
       <c r="F273">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="G273">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H273" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.73076923076923073</v>
+        <v>0.72413793103448276</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -8508,15 +8508,15 @@
       </c>
       <c r="F274">
         <f t="shared" ca="1" si="13"/>
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="G274">
         <f t="shared" ca="1" si="13"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H274" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.57471264367816088</v>
+        <v>0.31067961165048541</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -8539,15 +8539,15 @@
       </c>
       <c r="F275">
         <f t="shared" ca="1" si="13"/>
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="G275">
         <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H275" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.79012345679012341</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
@@ -8570,15 +8570,15 @@
       </c>
       <c r="F276">
         <f t="shared" ca="1" si="13"/>
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="G276">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H276" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.51798561151079137</v>
+        <v>0.38793103448275862</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
@@ -8601,15 +8601,15 @@
       </c>
       <c r="F277">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G277">
         <f t="shared" ca="1" si="13"/>
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H277" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>0.39823008849557523</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
   </sheetData>
